--- a/string matching/benchmark.xlsx
+++ b/string matching/benchmark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:EP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,242 +441,722 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_50000000</t>
+          <t>string_matching_clang.out_50000000+312</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_50000000 total</t>
+          <t>string_matching_clang.out_50000000+312 total</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_100000000</t>
+          <t>string_matching_clang.out_50000000+xd</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_100000000 total</t>
+          <t>string_matching_clang.out_50000000+xd total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_2000000000</t>
+          <t>string_matching_clang.out_50000000+openmp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_2000000000 total</t>
+          <t>string_matching_clang.out_50000000+openmp total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_50000000</t>
+          <t>string_matching_clang.out_100000000+312</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_50000000 total</t>
+          <t>string_matching_clang.out_100000000+312 total</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_100000000</t>
+          <t>string_matching_clang.out_100000000+xd</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_100000000 total</t>
+          <t>string_matching_clang.out_100000000+xd total</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_2000000000</t>
+          <t>string_matching_clang.out_100000000+openmp</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_2000000000 total</t>
+          <t>string_matching_clang.out_100000000+openmp total</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_50000000</t>
+          <t>string_matching_clang.out_2000000000+312</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_50000000 total</t>
+          <t>string_matching_clang.out_2000000000+312 total</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_100000000</t>
+          <t>string_matching_clang.out_2000000000+xd</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_100000000 total</t>
+          <t>string_matching_clang.out_2000000000+xd total</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_2000000000</t>
+          <t>string_matching_clang.out_2000000000+openmp</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_2000000000 total</t>
+          <t>string_matching_clang.out_2000000000+openmp total</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_50000000</t>
+          <t>string_matching_fortran_fortran.out_50000000+312</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_50000000 total</t>
+          <t>string_matching_fortran_fortran.out_50000000+312 total</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_100000000</t>
+          <t>string_matching_fortran_fortran.out_50000000+xd</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_100000000 total</t>
+          <t>string_matching_fortran_fortran.out_50000000+xd total</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_2000000000</t>
+          <t>string_matching_fortran_fortran.out_50000000+openmp</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_clang.out_2000000000 total</t>
+          <t>string_matching_fortran_fortran.out_50000000+openmp total</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_50000000</t>
+          <t>string_matching_fortran_fortran.out_100000000+312</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_50000000 total</t>
+          <t>string_matching_fortran_fortran.out_100000000+312 total</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_100000000</t>
+          <t>string_matching_fortran_fortran.out_100000000+xd</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_100000000 total</t>
+          <t>string_matching_fortran_fortran.out_100000000+xd total</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_2000000000</t>
+          <t>string_matching_fortran_fortran.out_100000000+openmp</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_seq_gcc.out_2000000000 total</t>
+          <t>string_matching_fortran_fortran.out_100000000+openmp total</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_50000000 speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+312</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_50000000 total speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+312 total</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_100000000 speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+xd</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_100000000 total speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+xd total</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_2000000000 speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+openmp</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_clang.out_2000000000 total speedup</t>
+          <t>string_matching_fortran_fortran.out_2000000000+openmp total</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_50000000 speedup</t>
+          <t>string_matching_gcc.out_50000000+312</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_50000000 total speedup</t>
+          <t>string_matching_gcc.out_50000000+312 total</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_100000000 speedup</t>
+          <t>string_matching_gcc.out_50000000+xd</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_100000000 total speedup</t>
+          <t>string_matching_gcc.out_50000000+xd total</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_2000000000 speedup</t>
+          <t>string_matching_gcc.out_50000000+openmp</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_fortran_fortran.out_2000000000 total speedup</t>
+          <t>string_matching_gcc.out_50000000+openmp total</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_50000000 speedup</t>
+          <t>string_matching_gcc.out_100000000+312</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_50000000 total speedup</t>
+          <t>string_matching_gcc.out_100000000+312 total</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_100000000 speedup</t>
+          <t>string_matching_gcc.out_100000000+xd</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_100000000 total speedup</t>
+          <t>string_matching_gcc.out_100000000+xd total</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_2000000000 speedup</t>
+          <t>string_matching_gcc.out_100000000+openmp</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>string_matching_gcc.out_2000000000 total speedup</t>
+          <t>string_matching_gcc.out_100000000+openmp total</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+312</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+312 total</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+xd</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+xd total</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+openmp</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+openmp total</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+312</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+312 total</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+xd</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+xd total</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+openmp</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_50000000+openmp total</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+312</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+312 total</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+xd</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+xd total</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+openmp</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_100000000+openmp total</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+312</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+312 total</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+xd</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+xd total</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+openmp</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_clang.out_2000000000+openmp total</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+312</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+312 total</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+xd</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+xd total</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+openmp</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_50000000+openmp total</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+312</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+312 total</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+xd</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+xd total</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+openmp</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_100000000+openmp total</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+312</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+312 total</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+xd</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+xd total</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+openmp</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_seq_gcc.out_2000000000+openmp total</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_50000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_100000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_clang.out_2000000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_50000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_100000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_fortran_fortran.out_2000000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_50000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_100000000+openmp total speedup</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+312 speedup</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+312 total speedup</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+xd speedup</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+xd total speedup</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+openmp speedup</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>string_matching_gcc.out_2000000000+openmp total speedup</t>
         </is>
       </c>
     </row>
@@ -689,202 +1169,602 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.027834</t>
+          <t>0.038652</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.052276688</t>
+          <t>.070106103</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.054282</t>
+          <t>0.039451</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>.103498566</t>
+          <t>.065272591</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.052023</t>
+          <t>0.027673</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.950428194</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04079103469848633</v>
+          <t>.053244878</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.069745</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>.067999439</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08125782012939453</v>
+          <t>.113168795</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.073298</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>.135558075</t>
+          <t>.117128377</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.588070869445801</t>
+          <t>0.054344</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.333921723</t>
+          <t>.103306341</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.027629</t>
+          <t>1.353478</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>.051766253</t>
+          <t>2.178628057</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.054011</t>
+          <t>1.434169</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>.104549324</t>
+          <t>2.249932457</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.031542</t>
+          <t>1.035849</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.922170057</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.036431</t>
-        </is>
+          <t>1.839273908</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03975296020507812</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>.054845659</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.071826</t>
-        </is>
+          <t>.066874541</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04284214973449707</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>.110454484</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1.430365</t>
-        </is>
+          <t>.069803369</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04204607009887695</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2.153972774</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.025825</t>
-        </is>
+          <t>.069779871</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.09067296981811523</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>.045651172</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.051232</t>
-        </is>
+          <t>.140519085</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.08014416694641113</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>.090831060</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1.032883</t>
-        </is>
+          <t>.129464818</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.08000898361206055</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.763480235</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
+          <t>.128315942</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1.577761888504028</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>2.479866103</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1.582615852355957</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>2.482285435</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1.550710916519165</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>2.445508265</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.035891</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>.059853230</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.037373</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>.061279317</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.027727</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>.050893420</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0.069543</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>.114756043</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>0.073577</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>.118601735</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.053893</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>.098475658</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>1.361059</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>2.158526842</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>1.446950</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>2.247613686</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>1.030955</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>1.825819392</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0.036530</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>.055329335</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0.036568</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>.054451034</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>0.036284</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>.054731621</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0.071693</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>.108729961</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>0.071792</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>.107863053</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>0.071776</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>.107747021</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>1.433839</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2.092553717</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>1.429653</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>2.084576907</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>1.433065</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>2.089790272</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>0.035768</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>.054992582</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>0.038879</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>.058298303</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>0.025906</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>.045262230</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>0.074087</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>.112001931</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>0.077521</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>.116390255</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>0.051629</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>.090008573</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>1.464129</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>2.113515505</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>1.546097</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>2.198932416</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>1.021827</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>1.662333698</t>
+        </is>
+      </c>
+      <c r="CO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -897,179 +1777,531 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.014729</t>
+          <t>0.026526</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.039297899</t>
+          <t>.054528760</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.028013</t>
+          <t>0.021246</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>.077053305</t>
+          <t>.047838753</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.531050</t>
+          <t>0.014476</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.432167586</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02022504806518555</v>
+          <t>.039077001</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.039933</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>.047091094</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.040679931640625</v>
+          <t>.083100940</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.041042</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>.093454352</t>
+          <t>.085630238</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.8111569881439209</t>
+          <t>0.027929</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.597389370</t>
+          <t>.071058750</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.014446</t>
+          <t>0.749012</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>.038545742</t>
+          <t>1.563099109</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.028008</t>
+          <t>0.799350</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>.076402859</t>
+          <t>1.616526425</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.519893</t>
+          <t>0.525011</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.404850430</t>
+          <t>1.324450416</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
+        <v>0.02026796340942383</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>.046787459</t>
+        </is>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
+        <v>0.0284569263458252</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>.059210430</t>
+        </is>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.02071404457092285</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>.049080017</t>
+        </is>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.04233598709106445</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>.092159086</t>
+        </is>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.04024100303649902</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>.088469892</t>
+        </is>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.88974132663453</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.33026674021428</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.937743190661479</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.34320735496031</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.981024385651069</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.361871482825195</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2.016857243899564</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.443997860826932</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.997491560390098</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1.450527151480329</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.957784858735674</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.28356639998107</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.912570953897273</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.342982397381272</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1.928413310482719</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1.368395441851201</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.98414289094102</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1.368238223765928</v>
+        <v>0.0402069091796875</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>.089867814</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.7901818752288818</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>1.692888803</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.7834780216217041</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>1.680842444</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.8125400543212891</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>1.710989841</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>0.020178</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>.044598319</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0.020715</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>.044861959</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0.014480</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>.037225655</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>0.039421</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>.084165847</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>0.041385</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>.087452473</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>0.027937</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>.071433217</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>0.753785</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>1.549541999</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>0.795809</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>1.591490295</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>0.517459</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>1.306174702</t>
+        </is>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1.457136394480887</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.285672056360717</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1.856867174997646</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1.364429189866216</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.911646863774523</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1.362563058511066</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1.746550472040668</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1.361823283828077</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1.785926611763559</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.367838975292817</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1.945791113179849</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.453815905852551</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1.807017778086332</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1.393787536859251</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>1.794169012322512</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1.391831535942878</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1.973004375146425</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1.388707259842032</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1.961369250676391</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1.429326200424776</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>1.505508684031938</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1.178903260793749</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>2.029833910751488</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1.421757270377473</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>2.141746916708903</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1.524744776657182</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1.991604604729149</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1.46337714530046</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1.989931214421252</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>1.427829790095929</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>1.996707261916148</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1.464872411351167</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>2.019987553805447</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>1.476810300608996</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>1.908473198671377</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1.429294439042786</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>1.778719397363465</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>1.342051255339916</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1.804151580979966</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1.365952766351554</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>1.914848066298343</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>1.367159825663242</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>1.764110499479973</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>1.363451412780293</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>1.777866376706536</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>1.356185033212268</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>1.929090453520421</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>1.378569552593438</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>1.805632905934716</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>1.393009575340978</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>1.818212661580857</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>1.41226980337948</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>1.992341422218959</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>1.397837049825208</v>
       </c>
     </row>
     <row r="4">
@@ -1081,179 +2313,531 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.008296</t>
+          <t>0.012104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>.032905615</t>
+          <t>.038153569</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.015063</t>
+          <t>0.011885</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>.064822862</t>
+          <t>.038886420</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.266579</t>
+          <t>0.008123</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.166370601</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01110100746154785</v>
+          <t>.032473157</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.024611</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>.038382191</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02198195457458496</v>
+          <t>.067236992</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.027541</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>.075101849</t>
+          <t>.071124278</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.4117469787597656</t>
+          <t>0.016210</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.123603546</t>
+          <t>.059587108</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.008178</t>
+          <t>0.426153</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>.032304040</t>
+          <t>1.248093678</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.024066</t>
+          <t>0.552286</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>.072608757</t>
+          <t>1.372083771</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.266326</t>
+          <t>0.266051</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.153287075</t>
+          <t>1.065783520</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
+        <v>0.0113520622253418</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>.039249674</t>
+        </is>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
+        <v>0.01139402389526367</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>.037886126</t>
+        </is>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.01052999496459961</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>.038932234</t>
+        </is>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.02187299728393555</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>.073785918</t>
+        </is>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.02191305160522461</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>.072817449</t>
+        </is>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>3.355110896817744</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.588685943113356</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3.603664608643696</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.59663678533663</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>3.946383623616263</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.672219955070696</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>3.674534481647731</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.771640368315607</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.696569377108212</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1.804989847853147</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>3.856909586147475</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1.569936031270876</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>3.378454389826364</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1.602469938744504</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2.244286545333666</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>1.439899652875203</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.873230552030218</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1.666688284874779</v>
+        <v>0.02099704742431641</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>.070333187</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.4024670124053955</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1.305318154</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.4017860889434814</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1.304311636</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.4053621292114258</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>1.300710279</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0.011779</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>.035640328</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0.011926</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>.036339055</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0.007908</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>.030723812</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>0.022914</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>.068308119</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>0.028134</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>.074776304</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>0.015854</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>.060311517</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>0.425337</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>1.226831943</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>0.535198</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>1.339358241</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>0.264472</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>1.058475998</t>
+        </is>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>3.193324520819564</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1.837471692359894</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>3.319394194362642</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.678544617889742</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>3.406746276006401</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1.639658195228755</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>2.833895412620373</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.683132924804251</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>2.661413892015541</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1.646812878719135</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>3.352498457742135</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1.733702884187633</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>3.176037714154306</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1.745564532055902</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>2.596786809732639</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1.639792339618016</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>3.893422689634694</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1.725748121907533</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>3.50182719368253</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1.703824113290724</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>3.760054404687173</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>1.842452010004929</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>3.992981026128696</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1.792341816295463</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>4.145429574240806</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>1.904416029627767</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>3.657371341529757</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1.777936741508206</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>3.810487350683563</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1.824401075412664</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>3.920226602111643</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1.899817370501383</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>3.938951337308697</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1.90313830413455</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>3.825495291175454</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1.880132958494134</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>3.047032855081076</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1.679368102336207</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>3.133741405332886</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>1.68632114951806</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>3.506196256954982</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>1.656481298609691</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>3.034956794972505</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1.679976621812701</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>2.615234236155541</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>1.586087151352118</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>3.399331399016021</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>1.632783635669453</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>3.199954389107931</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>1.759431562176075</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>2.703578862402326</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>1.678127342780131</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>3.898163132581143</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>1.724951151891873</v>
       </c>
     </row>
     <row r="5">
@@ -1265,179 +2849,531 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.004935</t>
+          <t>0.010140</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>.029634858</t>
+          <t>.035722609</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.008646</t>
+          <t>0.011319</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>.057485881</t>
+          <t>.037404881</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.134805</t>
+          <t>0.004942</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.036115940</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00598597526550293</v>
+          <t>.029164561</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.018614</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>.032500892</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01099896430969238</v>
+          <t>.061864079</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.022821</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>.063471291</t>
+          <t>.066555900</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.2217369079589844</t>
+          <t>0.008927</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.932761649</t>
+          <t>.051960114</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.005184</t>
+          <t>0.325632</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>.029257615</t>
+          <t>1.157461923</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.008687</t>
+          <t>0.441154</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>.057499362</t>
+          <t>1.272439020</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.134133</t>
+          <t>0.154384</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.020805697</t>
+          <t>.957082562</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
+        <v>0.006400108337402344</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>.032986230</t>
+        </is>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
+        <v>0.009920835494995117</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>.036941097</t>
+        </is>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.005801916122436523</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>.031859045</t>
+        </is>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.01918506622314453</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>.068045666</t>
+        </is>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.01996684074401855</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>.069374445</t>
+        </is>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>5.640121580547112</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.764026944215491</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.278278972935461</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.800417149386647</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>7.804035458625421</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.88244203057044</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>6.814434221531844</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.092233007020238</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.387770142847853</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.135738423848981</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>7.161960018580006</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1.724952336841406</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>5.329668209876544</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1.769325797745305</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.217451364107287</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1.818269287927056</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.690441576644076</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1.882993073656406</v>
+        <v>0.01170897483825684</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>.061409723</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.2148890495300293</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>1.115234448</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.2419481277465820</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>1.146849578</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.2061002254486084</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>1.103450610</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.009755</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>.034035334</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.011315</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>.035532609</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0.004966</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>.028183218</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>0.018138</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>.062851589</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>0.024135</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>.072558806</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>0.008992</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>.052750103</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.322342</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>1.121355525</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>0.444314</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>1.243154560</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>0.136911</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>.931177339</t>
+        </is>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>3.811834319526627</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>1.962513516299999</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>3.485378567011221</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1.74502870360689</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>5.599554836098745</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1.82567047726177</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>3.746910927259053</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1.829313501943511</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>3.211866263529206</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1.759849645185476</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>6.08759941749748</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1.988185418530837</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>4.15646496658805</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>1.882245984691455</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>3.250948648317821</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1.768204543900265</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>6.709561871696549</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1.921750516649785</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>6.211294888988228</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>2.027347199119148</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>4.318401384249357</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>1.889585709920851</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>7.2469282925827</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>2.190268760410112</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>4.726226574538948</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>2.065070316160914</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>4.0138631831588</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1.866174468134484</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>6.833133106635988</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>2.089505305210382</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>7.342216329564744</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>2.223627603547626</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>6.541137007737455</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>2.164438547668019</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>7.524062203929217</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>2.216237177122046</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>3.679241414659149</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>1.758561558408682</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>3.302960671674768</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>1.724593794956064</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>5.58336689488522</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>1.805805852262861</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>3.834105193516374</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>1.825825644599057</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>3.048560182307852</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>1.634560180055884</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>5.993438612099644</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>1.866833473291986</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>4.22240663642963</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>1.924926389424978</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>3.256593310136525</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>1.807992150227885</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>7.530110801907809</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>1.960764416755206</v>
       </c>
     </row>
     <row r="6">
@@ -1449,179 +3385,531 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.006735</t>
+          <t>0.010555</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.031549424</t>
+          <t>.036658120</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.009188</t>
+          <t>0.011627</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>.057589982</t>
+          <t>.037546250</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.130892</t>
+          <t>0.007059</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.029745387</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.005578041076660156</v>
+          <t>.031500497</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.019068</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>.032161279</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01267099380493164</v>
+          <t>.066915136</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.022719</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>.065690440</t>
+          <t>.068375937</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.1884169578552246</t>
+          <t>0.010248</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2.002289250</t>
+          <t>.053468793</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.005076</t>
+          <t>0.338268</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>.029862850</t>
+          <t>1.150386361</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.009060</t>
+          <t>0.408007</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>.057565471</t>
+          <t>1.226081736</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.127794</t>
+          <t>0.139506</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.017647212</t>
+          <t>.968810534</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
+        <v>0.007094860076904297</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>.033526572</t>
+        </is>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
+        <v>0.006146907806396484</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>.034141494</t>
+        </is>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.01254796981811523</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>.038824498</t>
+        </is>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.01780009269714355</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>.066735037</t>
+        </is>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.01190614700317383</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>.060920107</t>
+        </is>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>4.132739420935413</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.65697757271258</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>5.907923378319547</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.797162673188542</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>8.037336124438466</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.894087818817294</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>7.312788510856556</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.114326330118898</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.412900312347119</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.063589085413342</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>8.428492252093568</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.665054997923002</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>5.443065405831364</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.733466598131123</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5.961479028697572</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1.816181161794021</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.071912609355682</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>1.888837343957662</v>
+        <v>0.01065993309020996</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>.059817912</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0.1974749565124512</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>1.100811097</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0.1933848857879639</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>1.096779446</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0.1945569515228271</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>1.095105920</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0.013598</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>.037913553</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0.012370</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>.036552435</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0.008009</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>.031372161</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0.019285</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>.064454639</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>0.022868</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>.067951574</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>0.010067</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>.053908185</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0.339244</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>1.139365293</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>0.426774</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>1.231996206</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>0.128499</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>.921039454</t>
+        </is>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>3.661961155850308</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1.912430397412633</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>3.39305065795132</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1.738458328062057</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>3.920243660575152</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1.690286918330209</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>3.657698762324313</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1.691228648179091</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>3.226286368238039</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1.713005804951529</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>5.302888368462139</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1.932086647252351</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>4.001200231768893</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1.893822919724272</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>3.515059790640847</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>1.835059108163732</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>7.425121500150532</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>1.89848669420021</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>5.603064722091538</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1.994672792673226</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>6.969707547901637</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2.044531765364456</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>3.350826524795744</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1.797315473338509</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>5.093960540591222</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>2.105626838867265</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>6.731326845288157</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>2.125157429549492</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>7.505580282257163</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>2.145109010157359</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>7.989680901155418</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>2.252762630898514</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>8.18376185867602</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>2.263249410857395</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>7.970472935464464</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>2.233124869784286</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>2.63943226945139</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>1.578676364095974</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>3.021261115602264</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>1.676477011723022</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>3.461980272193782</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>1.622247826663901</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>3.606066891366347</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>1.780415572570347</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>3.217465453909393</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1.745386133366094</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>5.35343200556273</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>1.826729243434925</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>4.012035585006662</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>1.894499380717928</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>3.39043615590453</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>1.824367376339144</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>8.023058545202687</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>1.982346558630701</v>
       </c>
     </row>
   </sheetData>
